--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W5_H200_B32.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4380664652567976</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07390831239578508</v>
+        <v>0.06297347103346379</v>
       </c>
       <c r="J2" t="n">
-        <v>959.7293000630623</v>
+        <v>789.305669231729</v>
       </c>
       <c r="K2" t="n">
-        <v>1229245.503979501</v>
+        <v>795690.8138858662</v>
       </c>
       <c r="L2" t="n">
-        <v>1108.713445385913</v>
+        <v>892.0150300784545</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7702006523439954</v>
+        <v>0.8512508450306305</v>
       </c>
     </row>
   </sheetData>
